--- a/CONTROL_ALEXIS_ROMERO.xlsx
+++ b/CONTROL_ALEXIS_ROMERO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/arm256/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/arm256/ControGastos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4BCC948-605C-2E4B-ACDD-49B8ACA93AEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86289E9-F114-784E-B8E2-5E0CFCA5C5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{3FAFDB23-1CF5-4013-9B78-8B5AA99A5182}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="84">
   <si>
     <t>qty</t>
   </si>
@@ -263,6 +263,33 @@
   </si>
   <si>
     <t>ahorro rec cetes</t>
+  </si>
+  <si>
+    <t>transferencia isabel</t>
+  </si>
+  <si>
+    <t>devuelta trasnferencia</t>
+  </si>
+  <si>
+    <t>compra cerveza</t>
+  </si>
+  <si>
+    <t>compra segunda (jesucristo)</t>
+  </si>
+  <si>
+    <t>compra segunda (bolsa)</t>
+  </si>
+  <si>
+    <t>compra segunda (pastel)</t>
+  </si>
+  <si>
+    <t>compra segunda (ropa emilio)</t>
+  </si>
+  <si>
+    <t>compra del pan</t>
+  </si>
+  <si>
+    <t>compra en el smart</t>
   </si>
 </sst>
 </file>
@@ -651,6 +678,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -666,26 +713,6 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1561,7 +1588,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD1FB0A-BFE8-1746-BA6B-F005879BE8AE}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView view="pageLayout" zoomScale="110" zoomScaleNormal="155" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView view="pageLayout" topLeftCell="A2" zoomScale="110" zoomScaleNormal="155" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -2203,10 +2230,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78A4DDF-76F9-6A4E-988A-52D7A688F1B7}">
-  <dimension ref="A1:M37"/>
+  <dimension ref="A1:M44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -2217,6 +2244,7 @@
     <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5.33203125" customWidth="1"/>
     <col min="6" max="6" width="12.5" customWidth="1"/>
+    <col min="9" max="9" width="14.1640625" customWidth="1"/>
     <col min="10" max="10" width="13.5" customWidth="1"/>
     <col min="11" max="11" width="14.5" customWidth="1"/>
   </cols>
@@ -2299,8 +2327,8 @@
         <v>57</v>
       </c>
       <c r="K3" s="37">
-        <f>SUMIF(E3:E33,1,D3:D33)</f>
-        <v>1451.7999999999993</v>
+        <f>SUMIF(E3:E35,1,D3:D35)</f>
+        <v>599.79999999999927</v>
       </c>
       <c r="L3" s="21"/>
       <c r="M3" s="21"/>
@@ -2336,7 +2364,7 @@
         <v>58</v>
       </c>
       <c r="K4" s="37">
-        <f>SUMIF(E4:E34,2,D4:D34)</f>
+        <f>SUMIF(E3:E35,2,D3:D35)</f>
         <v>4000</v>
       </c>
       <c r="L4" s="21"/>
@@ -2373,7 +2401,7 @@
         <v>59</v>
       </c>
       <c r="K5" s="37">
-        <f>SUMIF(E5:E35,3,D5:D35)</f>
+        <f>SUMIF(E3:E35,3,D3:D35)</f>
         <v>824</v>
       </c>
       <c r="L5" s="21"/>
@@ -2398,7 +2426,7 @@
         <v>4</v>
       </c>
       <c r="F6" s="36" t="str">
-        <f t="shared" ref="F6:F23" si="3">IF(E6=1,"santander",IF(E6=2,"stori",IF(E6=3,"bbva",IF(E6=4,"efectivo","na"))))</f>
+        <f t="shared" ref="F6:F35" si="3">IF(E6=1,"santander",IF(E6=2,"stori",IF(E6=3,"bbva",IF(E6=4,"efectivo","na"))))</f>
         <v>efectivo</v>
       </c>
       <c r="G6" s="36"/>
@@ -2410,8 +2438,8 @@
         <v>60</v>
       </c>
       <c r="K6" s="37">
-        <f>SUMIF(E6:E36,4,D6:D36)</f>
-        <v>239</v>
+        <f>SUMIF(E3:E36,4,D3:D36)</f>
+        <v>81</v>
       </c>
       <c r="L6" s="21"/>
       <c r="M6" s="21"/>
@@ -2470,7 +2498,7 @@
       </c>
       <c r="K8" s="37">
         <f>SUM(K3:K6)</f>
-        <v>6514.7999999999993</v>
+        <v>5504.7999999999993</v>
       </c>
       <c r="L8" s="21"/>
       <c r="M8" s="21"/>
@@ -2524,6 +2552,13 @@
         <v>efectivo</v>
       </c>
       <c r="G10" s="36"/>
+      <c r="I10" s="39" t="s">
+        <v>53</v>
+      </c>
+      <c r="J10" s="36">
+        <f>SUMIF(D3:D35, "&gt;0")</f>
+        <v>13950.36</v>
+      </c>
       <c r="L10" s="21"/>
       <c r="M10" s="21"/>
     </row>
@@ -2550,6 +2585,13 @@
         <v>santander</v>
       </c>
       <c r="G11" s="36"/>
+      <c r="I11" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="J11" s="36">
+        <f>SUMIF(D3:D35, "&lt;0")</f>
+        <v>-8445.56</v>
+      </c>
       <c r="L11" s="21"/>
       <c r="M11" s="21"/>
     </row>
@@ -2576,6 +2618,13 @@
         <v>bbva</v>
       </c>
       <c r="G12" s="36"/>
+      <c r="I12" s="39" t="s">
+        <v>55</v>
+      </c>
+      <c r="J12" s="36">
+        <f>J10+J11</f>
+        <v>5504.8000000000011</v>
+      </c>
       <c r="L12" s="21"/>
       <c r="M12" s="21"/>
     </row>
@@ -2766,7 +2815,9 @@
         <f t="shared" si="1"/>
         <v>18</v>
       </c>
-      <c r="B20" s="36"/>
+      <c r="B20" s="38">
+        <v>45079</v>
+      </c>
       <c r="C20" s="36" t="s">
         <v>51</v>
       </c>
@@ -2789,7 +2840,9 @@
         <f t="shared" si="1"/>
         <v>19</v>
       </c>
-      <c r="B21" s="36"/>
+      <c r="B21" s="38">
+        <v>45079</v>
+      </c>
       <c r="C21" s="36" t="s">
         <v>72</v>
       </c>
@@ -2812,7 +2865,9 @@
         <f t="shared" si="1"/>
         <v>20</v>
       </c>
-      <c r="B22" s="36"/>
+      <c r="B22" s="38">
+        <v>45079</v>
+      </c>
       <c r="C22" s="36" t="s">
         <v>73</v>
       </c>
@@ -2835,7 +2890,9 @@
         <f t="shared" si="1"/>
         <v>21</v>
       </c>
-      <c r="B23" s="36"/>
+      <c r="B23" s="38">
+        <v>45079</v>
+      </c>
       <c r="C23" s="36" t="s">
         <v>74</v>
       </c>
@@ -2858,11 +2915,22 @@
         <f t="shared" si="1"/>
         <v>22</v>
       </c>
-      <c r="B24" s="36"/>
-      <c r="C24" s="36"/>
-      <c r="D24" s="37"/>
-      <c r="E24" s="43"/>
-      <c r="F24" s="36"/>
+      <c r="B24" s="38">
+        <v>45079</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D24" s="37">
+        <v>100</v>
+      </c>
+      <c r="E24" s="43">
+        <v>4</v>
+      </c>
+      <c r="F24" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>efectivo</v>
+      </c>
       <c r="G24" s="36"/>
       <c r="L24" s="21"/>
       <c r="M24" s="21"/>
@@ -2872,11 +2940,22 @@
         <f t="shared" si="1"/>
         <v>23</v>
       </c>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="43"/>
-      <c r="F25" s="36"/>
+      <c r="B25" s="38">
+        <v>45079</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D25" s="37">
+        <v>187</v>
+      </c>
+      <c r="E25" s="43">
+        <v>4</v>
+      </c>
+      <c r="F25" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>efectivo</v>
+      </c>
       <c r="G25" s="36"/>
       <c r="L25" s="21"/>
       <c r="M25" s="21"/>
@@ -2886,11 +2965,22 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-      <c r="B26" s="36"/>
-      <c r="C26" s="36"/>
-      <c r="D26" s="37"/>
-      <c r="E26" s="43"/>
-      <c r="F26" s="36"/>
+      <c r="B26" s="38">
+        <v>45079</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>75</v>
+      </c>
+      <c r="D26" s="37">
+        <v>-600</v>
+      </c>
+      <c r="E26" s="43">
+        <v>1</v>
+      </c>
+      <c r="F26" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>santander</v>
+      </c>
       <c r="G26" s="36"/>
       <c r="L26" s="21"/>
       <c r="M26" s="21"/>
@@ -2900,11 +2990,22 @@
         <f>A26+1</f>
         <v>25</v>
       </c>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="43"/>
-      <c r="F27" s="36"/>
+      <c r="B27" s="38">
+        <v>45079</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>76</v>
+      </c>
+      <c r="D27" s="37">
+        <v>500</v>
+      </c>
+      <c r="E27" s="43">
+        <v>4</v>
+      </c>
+      <c r="F27" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>efectivo</v>
+      </c>
       <c r="G27" s="36"/>
       <c r="L27" s="21"/>
       <c r="M27" s="21"/>
@@ -2914,11 +3015,22 @@
         <f t="shared" si="1"/>
         <v>26</v>
       </c>
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="37"/>
-      <c r="E28" s="43"/>
-      <c r="F28" s="36"/>
+      <c r="B28" s="38">
+        <v>45079</v>
+      </c>
+      <c r="C28" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="D28" s="37">
+        <v>-130</v>
+      </c>
+      <c r="E28" s="43">
+        <v>4</v>
+      </c>
+      <c r="F28" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>efectivo</v>
+      </c>
       <c r="G28" s="36"/>
       <c r="L28" s="21"/>
       <c r="M28" s="21"/>
@@ -2928,11 +3040,22 @@
         <f t="shared" si="1"/>
         <v>27</v>
       </c>
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="37"/>
-      <c r="E29" s="43"/>
-      <c r="F29" s="36"/>
+      <c r="B29" s="38">
+        <v>45079</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D29" s="37">
+        <v>-200</v>
+      </c>
+      <c r="E29" s="43">
+        <v>4</v>
+      </c>
+      <c r="F29" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>efectivo</v>
+      </c>
       <c r="G29" s="36"/>
       <c r="L29" s="21"/>
       <c r="M29" s="21"/>
@@ -2942,11 +3065,22 @@
         <f t="shared" si="1"/>
         <v>28</v>
       </c>
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="37"/>
-      <c r="E30" s="43"/>
-      <c r="F30" s="36"/>
+      <c r="B30" s="38">
+        <v>45079</v>
+      </c>
+      <c r="C30" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="D30" s="37">
+        <v>-100</v>
+      </c>
+      <c r="E30" s="43">
+        <v>4</v>
+      </c>
+      <c r="F30" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>efectivo</v>
+      </c>
       <c r="G30" s="36"/>
       <c r="L30" s="21"/>
       <c r="M30" s="21"/>
@@ -2956,11 +3090,22 @@
         <f>A30+1</f>
         <v>29</v>
       </c>
-      <c r="B31" s="36"/>
-      <c r="C31" s="36"/>
-      <c r="D31" s="37"/>
-      <c r="E31" s="43"/>
-      <c r="F31" s="36"/>
+      <c r="B31" s="38">
+        <v>45079</v>
+      </c>
+      <c r="C31" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="37">
+        <v>-300</v>
+      </c>
+      <c r="E31" s="43">
+        <v>4</v>
+      </c>
+      <c r="F31" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>efectivo</v>
+      </c>
       <c r="G31" s="36"/>
       <c r="L31" s="21"/>
       <c r="M31" s="21"/>
@@ -2970,11 +3115,22 @@
         <f t="shared" si="1"/>
         <v>30</v>
       </c>
-      <c r="B32" s="36"/>
-      <c r="C32" s="36"/>
-      <c r="D32" s="37"/>
-      <c r="E32" s="43"/>
-      <c r="F32" s="36"/>
+      <c r="B32" s="38">
+        <v>45079</v>
+      </c>
+      <c r="C32" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="37">
+        <v>-35</v>
+      </c>
+      <c r="E32" s="43">
+        <v>4</v>
+      </c>
+      <c r="F32" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>efectivo</v>
+      </c>
       <c r="G32" s="36"/>
       <c r="L32" s="21"/>
       <c r="M32" s="21"/>
@@ -2984,22 +3140,48 @@
         <f>A32+1</f>
         <v>31</v>
       </c>
-      <c r="B33" s="36"/>
-      <c r="C33" s="36"/>
-      <c r="D33" s="37"/>
-      <c r="E33" s="43"/>
-      <c r="F33" s="36"/>
+      <c r="B33" s="38">
+        <v>45079</v>
+      </c>
+      <c r="C33" s="36" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="37">
+        <v>-180</v>
+      </c>
+      <c r="E33" s="43">
+        <v>4</v>
+      </c>
+      <c r="F33" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>efectivo</v>
+      </c>
       <c r="G33" s="36"/>
       <c r="L33" s="21"/>
       <c r="M33" s="21"/>
     </row>
     <row r="34" spans="1:13">
-      <c r="B34" s="21"/>
-      <c r="C34" s="21"/>
-      <c r="D34" s="21"/>
-      <c r="E34" s="21"/>
-      <c r="F34" s="21"/>
-      <c r="G34" s="21"/>
+      <c r="A34" s="34">
+        <f t="shared" ref="A34:A44" si="4">A33+1</f>
+        <v>32</v>
+      </c>
+      <c r="B34" s="38">
+        <v>45080</v>
+      </c>
+      <c r="C34" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="D34" s="37">
+        <v>-159</v>
+      </c>
+      <c r="E34" s="43">
+        <v>1</v>
+      </c>
+      <c r="F34" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>santander</v>
+      </c>
+      <c r="G34" s="36"/>
       <c r="H34" s="21"/>
       <c r="I34" s="21"/>
       <c r="J34" s="21"/>
@@ -3008,17 +3190,27 @@
       <c r="M34" s="21"/>
     </row>
     <row r="35" spans="1:13">
-      <c r="B35" s="21"/>
-      <c r="C35" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" s="36">
-        <f>SUMIF(D3:D33, "&gt;0")</f>
-        <v>13163.36</v>
-      </c>
-      <c r="E35" s="21"/>
-      <c r="F35" s="21"/>
-      <c r="G35" s="21"/>
+      <c r="A35" s="34">
+        <f t="shared" si="4"/>
+        <v>33</v>
+      </c>
+      <c r="B35" s="38">
+        <v>45080</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="D35" s="37">
+        <v>-93</v>
+      </c>
+      <c r="E35" s="43">
+        <v>1</v>
+      </c>
+      <c r="F35" s="36" t="str">
+        <f t="shared" si="3"/>
+        <v>santander</v>
+      </c>
+      <c r="G35" s="36"/>
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
       <c r="J35" s="21"/>
@@ -3027,59 +3219,149 @@
       <c r="M35" s="21"/>
     </row>
     <row r="36" spans="1:13">
-      <c r="C36" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="D36" s="36">
-        <f>SUMIF(D3:D33, "&lt;0")</f>
-        <v>-6648.5599999999995</v>
-      </c>
+      <c r="A36" s="34">
+        <f t="shared" si="4"/>
+        <v>34</v>
+      </c>
+      <c r="B36" s="38"/>
+      <c r="C36" s="36"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="36"/>
+      <c r="G36" s="36"/>
     </row>
     <row r="37" spans="1:13">
-      <c r="C37" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" s="36">
-        <f>D35+D36</f>
-        <v>6514.8000000000011</v>
-      </c>
+      <c r="A37" s="34">
+        <f t="shared" si="4"/>
+        <v>35</v>
+      </c>
+      <c r="B37" s="38"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="36"/>
+      <c r="G37" s="36"/>
+    </row>
+    <row r="38" spans="1:13">
+      <c r="A38" s="34">
+        <f t="shared" si="4"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="38"/>
+      <c r="C38" s="36"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="36"/>
+    </row>
+    <row r="39" spans="1:13">
+      <c r="A39" s="34">
+        <f t="shared" si="4"/>
+        <v>37</v>
+      </c>
+      <c r="B39" s="38"/>
+      <c r="C39" s="36"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="43"/>
+      <c r="F39" s="36"/>
+      <c r="G39" s="36"/>
+    </row>
+    <row r="40" spans="1:13">
+      <c r="A40" s="34">
+        <f t="shared" si="4"/>
+        <v>38</v>
+      </c>
+      <c r="B40" s="38"/>
+      <c r="C40" s="36"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="43"/>
+      <c r="F40" s="36"/>
+      <c r="G40" s="36"/>
+    </row>
+    <row r="41" spans="1:13">
+      <c r="A41" s="34">
+        <f t="shared" si="4"/>
+        <v>39</v>
+      </c>
+      <c r="B41" s="38"/>
+      <c r="C41" s="36"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="43"/>
+      <c r="F41" s="36"/>
+      <c r="G41" s="36"/>
+    </row>
+    <row r="42" spans="1:13">
+      <c r="A42" s="34">
+        <f t="shared" si="4"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="38"/>
+      <c r="C42" s="36"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="43"/>
+      <c r="F42" s="36"/>
+      <c r="G42" s="36"/>
+    </row>
+    <row r="43" spans="1:13">
+      <c r="A43" s="34">
+        <f t="shared" si="4"/>
+        <v>41</v>
+      </c>
+      <c r="B43" s="38"/>
+      <c r="C43" s="36"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="43"/>
+      <c r="F43" s="36"/>
+      <c r="G43" s="36"/>
+    </row>
+    <row r="44" spans="1:13">
+      <c r="A44" s="34">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="B44" s="38"/>
+      <c r="C44" s="36"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="43"/>
+      <c r="F44" s="36"/>
+      <c r="G44" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="I1:K1"/>
   </mergeCells>
-  <conditionalFormatting sqref="D3:D33">
-    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
+  <conditionalFormatting sqref="D3:D44">
+    <cfRule type="cellIs" dxfId="1" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C35:D35 C37:D37 D36">
-    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
+  <conditionalFormatting sqref="I10:J10 I12:J12 J11">
+    <cfRule type="cellIs" dxfId="7" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D36:D37">
-    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
+  <conditionalFormatting sqref="J11:J12">
+    <cfRule type="cellIs" dxfId="6" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K6">
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/CONTROL_ALEXIS_ROMERO.xlsx
+++ b/CONTROL_ALEXIS_ROMERO.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/arm256/ControGastos/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ARM\ControlGastos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A86289E9-F114-784E-B8E2-5E0CFCA5C5AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186490C1-24BA-4720-8E90-EE138917A4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="2" xr2:uid="{3FAFDB23-1CF5-4013-9B78-8B5AA99A5182}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" activeTab="3" xr2:uid="{3FAFDB23-1CF5-4013-9B78-8B5AA99A5182}"/>
   </bookViews>
   <sheets>
     <sheet name="VENTA_LIBROS" sheetId="1" r:id="rId1"/>
     <sheet name="GASTOS_INGRESOS" sheetId="2" r:id="rId2"/>
     <sheet name="GASTOS_DETALLADOS" sheetId="3" r:id="rId3"/>
+    <sheet name="ConsorcioMendoza" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,12 +26,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="98">
   <si>
     <t>qty</t>
   </si>
@@ -290,6 +288,48 @@
   </si>
   <si>
     <t>compra en el smart</t>
+  </si>
+  <si>
+    <t>PROYECTO:</t>
+  </si>
+  <si>
+    <t>CONSORCIO MENDOZA</t>
+  </si>
+  <si>
+    <t>DESCRIPCION:</t>
+  </si>
+  <si>
+    <t>RENTA DE MOBILARIO, Y TRAMPOLINES PARA FIESTAS</t>
+  </si>
+  <si>
+    <t>CONTROL DE INGRESOS Y EGRESOS:</t>
+  </si>
+  <si>
+    <t>FECHA</t>
+  </si>
+  <si>
+    <t>INGRESO</t>
+  </si>
+  <si>
+    <t>EGRESO</t>
+  </si>
+  <si>
+    <t>CAPITAL INICIAL</t>
+  </si>
+  <si>
+    <t>TOTAL:</t>
+  </si>
+  <si>
+    <t>SALDO:</t>
+  </si>
+  <si>
+    <t>TOTAL INGRESO</t>
+  </si>
+  <si>
+    <t>TOTAL EGRESO</t>
+  </si>
+  <si>
+    <t>TOTALES</t>
   </si>
 </sst>
 </file>
@@ -297,11 +337,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -405,8 +445,16 @@
       <name val="Monaco"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="13">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -477,6 +525,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="5">
     <border>
@@ -544,10 +598,10 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -555,25 +609,25 @@
     <xf numFmtId="0" fontId="3" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="164" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="3" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -582,17 +636,17 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="14" fillId="11" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="14" fillId="11" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="13" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="13" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="10" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="14" fillId="11" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="14" fillId="11" borderId="1" xfId="2" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="13" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -629,33 +683,25 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Bad" xfId="2" builtinId="27"/>
-    <cellStyle name="Good" xfId="1" builtinId="26"/>
+    <cellStyle name="Bueno" xfId="1" builtinId="26"/>
+    <cellStyle name="Incorrecto" xfId="2" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="11">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="13">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -728,6 +774,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
@@ -745,6 +811,12 @@
           <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -765,8 +837,35 @@
 </styleSheet>
 </file>
 
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBF203B9-D3EC-4D38-953D-15350ECE7D5C}" name="Tabla1" displayName="Tabla1" ref="A6:D8" totalsRowShown="0">
+  <autoFilter ref="A6:D8" xr:uid="{DBF203B9-D3EC-4D38-953D-15350ECE7D5C}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{489C5F4A-8927-46D7-BCBD-CDFABE9D1AB3}" name="FECHA"/>
+    <tableColumn id="2" xr3:uid="{CF70806B-E810-4A1C-BA9A-301F219AFE9D}" name="DESCRIPCION"/>
+    <tableColumn id="3" xr3:uid="{796B9485-1B10-449C-9ADB-0BD835C6D9D5}" name="INGRESO"/>
+    <tableColumn id="4" xr3:uid="{F81D1200-8249-4639-8642-7918AAFC84F0}" name="EGRESO"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8F50BF62-943F-44D4-BBE4-B76150A93187}" name="Tabla2" displayName="Tabla2" ref="B10:D12" totalsRowShown="0">
+  <autoFilter ref="B10:D12" xr:uid="{8F50BF62-943F-44D4-BBE4-B76150A93187}"/>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{1C7C75B3-9954-490B-B2D9-C6E9F64941E3}" name="TOTALES" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{F05B19AA-6F7C-46AD-BBDF-42F8D6BF0ED7}" name="TOTAL INGRESO" dataDxfId="11">
+      <calculatedColumnFormula>C10-D10</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{866002AB-BFEE-4C84-AF1C-D69630F2AB41}" name="TOTAL EGRESO"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1071,13 +1170,13 @@
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="4.5" customWidth="1"/>
+    <col min="2" max="2" width="4.42578125" customWidth="1"/>
     <col min="3" max="3" width="50" customWidth="1"/>
-    <col min="4" max="4" width="9.33203125" customWidth="1"/>
-    <col min="5" max="5" width="8.5" customWidth="1"/>
-    <col min="6" max="6" width="10.5" customWidth="1"/>
-    <col min="7" max="7" width="7.1640625" customWidth="1"/>
-    <col min="8" max="8" width="5.83203125" customWidth="1"/>
+    <col min="4" max="4" width="9.28515625" customWidth="1"/>
+    <col min="5" max="5" width="8.42578125" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" customWidth="1"/>
+    <col min="7" max="7" width="7.140625" customWidth="1"/>
+    <col min="8" max="8" width="5.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -1588,18 +1687,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD1FB0A-BFE8-1746-BA6B-F005879BE8AE}">
   <dimension ref="A1:L34"/>
   <sheetViews>
-    <sheetView view="pageLayout" topLeftCell="A2" zoomScale="110" zoomScaleNormal="155" zoomScalePageLayoutView="110" workbookViewId="0">
+    <sheetView view="pageLayout" zoomScale="110" zoomScaleNormal="155" zoomScalePageLayoutView="110" workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="2.5" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" customWidth="1"/>
-    <col min="3" max="3" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
-    <col min="5" max="5" width="14.1640625" customWidth="1"/>
-    <col min="6" max="6" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="14.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2224,7 +2323,7 @@
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2232,21 +2331,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F78A4DDF-76F9-6A4E-988A-52D7A688F1B7}">
   <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="3.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" customWidth="1"/>
-    <col min="3" max="3" width="36.6640625" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.33203125" customWidth="1"/>
-    <col min="6" max="6" width="12.5" customWidth="1"/>
-    <col min="9" max="9" width="14.1640625" customWidth="1"/>
-    <col min="10" max="10" width="13.5" customWidth="1"/>
-    <col min="11" max="11" width="14.5" customWidth="1"/>
+    <col min="1" max="1" width="3.28515625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="36.7109375" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.28515625" customWidth="1"/>
+    <col min="6" max="6" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="14.140625" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
@@ -2303,8 +2402,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="38">
-        <f>DATE(23,6,1)</f>
-        <v>8553</v>
+        <v>45062</v>
       </c>
       <c r="C3" s="36" t="s">
         <v>44</v>
@@ -2339,8 +2437,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="38">
-        <f t="shared" ref="B4:B19" si="0">DATE(23,6,1)</f>
-        <v>8553</v>
+        <v>45063</v>
       </c>
       <c r="C4" s="36" t="s">
         <v>45</v>
@@ -2372,12 +2469,11 @@
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="34">
-        <f t="shared" ref="A5:A32" si="1">A4+1</f>
+        <f t="shared" ref="A5:A32" si="0">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5" s="38">
-        <f t="shared" si="0"/>
-        <v>8553</v>
+        <v>45064</v>
       </c>
       <c r="C5" s="36" t="s">
         <v>46</v>
@@ -2394,7 +2490,7 @@
       </c>
       <c r="G5" s="36"/>
       <c r="I5" s="36">
-        <f t="shared" ref="I5:I6" si="2">I4+1</f>
+        <f t="shared" ref="I5:I6" si="1">I4+1</f>
         <v>3</v>
       </c>
       <c r="J5" s="36" t="s">
@@ -2409,12 +2505,11 @@
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="B6" s="38">
-        <f t="shared" si="0"/>
-        <v>8553</v>
+        <v>45065</v>
       </c>
       <c r="C6" s="36" t="s">
         <v>47</v>
@@ -2426,12 +2521,12 @@
         <v>4</v>
       </c>
       <c r="F6" s="36" t="str">
-        <f t="shared" ref="F6:F35" si="3">IF(E6=1,"santander",IF(E6=2,"stori",IF(E6=3,"bbva",IF(E6=4,"efectivo","na"))))</f>
+        <f t="shared" ref="F6:F35" si="2">IF(E6=1,"santander",IF(E6=2,"stori",IF(E6=3,"bbva",IF(E6=4,"efectivo","na"))))</f>
         <v>efectivo</v>
       </c>
       <c r="G6" s="36"/>
       <c r="I6" s="36">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
       <c r="J6" s="36" t="s">
@@ -2446,12 +2541,11 @@
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="B7" s="38">
-        <f t="shared" si="0"/>
-        <v>8553</v>
+        <v>45066</v>
       </c>
       <c r="C7" s="36" t="s">
         <v>48</v>
@@ -2463,21 +2557,20 @@
         <v>1</v>
       </c>
       <c r="F7" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>santander</v>
       </c>
       <c r="G7" s="36"/>
       <c r="L7" s="21"/>
       <c r="M7" s="21"/>
     </row>
-    <row r="8" spans="1:13" ht="16">
+    <row r="8" spans="1:13" ht="15.75">
       <c r="A8" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="B8" s="38">
-        <f t="shared" si="0"/>
-        <v>8553</v>
+        <v>45067</v>
       </c>
       <c r="C8" s="36" t="s">
         <v>49</v>
@@ -2489,7 +2582,7 @@
         <v>2</v>
       </c>
       <c r="F8" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>stori</v>
       </c>
       <c r="G8" s="36"/>
@@ -2505,12 +2598,11 @@
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>7</v>
       </c>
       <c r="B9" s="38">
-        <f t="shared" si="0"/>
-        <v>8553</v>
+        <v>45068</v>
       </c>
       <c r="C9" s="36" t="s">
         <v>51</v>
@@ -2522,7 +2614,7 @@
         <v>4</v>
       </c>
       <c r="F9" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>efectivo</v>
       </c>
       <c r="G9" s="36"/>
@@ -2531,12 +2623,11 @@
     </row>
     <row r="10" spans="1:13">
       <c r="A10" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="B10" s="38">
-        <f t="shared" si="0"/>
-        <v>8553</v>
+        <v>45069</v>
       </c>
       <c r="C10" s="36" t="s">
         <v>51</v>
@@ -2548,7 +2639,7 @@
         <v>4</v>
       </c>
       <c r="F10" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>efectivo</v>
       </c>
       <c r="G10" s="36"/>
@@ -2564,12 +2655,11 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
       <c r="B11" s="38">
-        <f t="shared" si="0"/>
-        <v>8553</v>
+        <v>45070</v>
       </c>
       <c r="C11" s="36" t="s">
         <v>56</v>
@@ -2581,7 +2671,7 @@
         <v>1</v>
       </c>
       <c r="F11" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>santander</v>
       </c>
       <c r="G11" s="36"/>
@@ -2597,12 +2687,11 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
       <c r="B12" s="38">
-        <f t="shared" si="0"/>
-        <v>8553</v>
+        <v>45071</v>
       </c>
       <c r="C12" s="36" t="s">
         <v>65</v>
@@ -2614,7 +2703,7 @@
         <v>3</v>
       </c>
       <c r="F12" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>bbva</v>
       </c>
       <c r="G12" s="36"/>
@@ -2630,12 +2719,11 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>11</v>
       </c>
       <c r="B13" s="38">
-        <f t="shared" si="0"/>
-        <v>8553</v>
+        <v>45072</v>
       </c>
       <c r="C13" s="36" t="s">
         <v>66</v>
@@ -2647,7 +2735,7 @@
         <v>2</v>
       </c>
       <c r="F13" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>stori</v>
       </c>
       <c r="G13" s="36"/>
@@ -2656,12 +2744,11 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
       <c r="B14" s="38">
-        <f t="shared" si="0"/>
-        <v>8553</v>
+        <v>45073</v>
       </c>
       <c r="C14" s="36" t="s">
         <v>51</v>
@@ -2673,7 +2760,7 @@
         <v>4</v>
       </c>
       <c r="F14" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>efectivo</v>
       </c>
       <c r="G14" s="36"/>
@@ -2682,12 +2769,11 @@
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>13</v>
       </c>
       <c r="B15" s="38">
-        <f t="shared" si="0"/>
-        <v>8553</v>
+        <v>45074</v>
       </c>
       <c r="C15" s="36" t="s">
         <v>51</v>
@@ -2699,7 +2785,7 @@
         <v>4</v>
       </c>
       <c r="F15" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>efectivo</v>
       </c>
       <c r="G15" s="36"/>
@@ -2708,12 +2794,11 @@
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>14</v>
       </c>
       <c r="B16" s="38">
-        <f t="shared" si="0"/>
-        <v>8553</v>
+        <v>45075</v>
       </c>
       <c r="C16" s="36" t="s">
         <v>69</v>
@@ -2725,7 +2810,7 @@
         <v>4</v>
       </c>
       <c r="F16" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>efectivo</v>
       </c>
       <c r="G16" s="36"/>
@@ -2734,12 +2819,11 @@
     </row>
     <row r="17" spans="1:13">
       <c r="A17" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
       <c r="B17" s="38">
-        <f t="shared" si="0"/>
-        <v>8553</v>
+        <v>45076</v>
       </c>
       <c r="C17" s="36" t="s">
         <v>32</v>
@@ -2751,7 +2835,7 @@
         <v>4</v>
       </c>
       <c r="F17" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>efectivo</v>
       </c>
       <c r="G17" s="36"/>
@@ -2760,12 +2844,11 @@
     </row>
     <row r="18" spans="1:13">
       <c r="A18" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
       <c r="B18" s="38">
-        <f t="shared" si="0"/>
-        <v>8553</v>
+        <v>45077</v>
       </c>
       <c r="C18" s="36" t="s">
         <v>70</v>
@@ -2777,7 +2860,7 @@
         <v>1</v>
       </c>
       <c r="F18" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>santander</v>
       </c>
       <c r="G18" s="36"/>
@@ -2786,12 +2869,11 @@
     </row>
     <row r="19" spans="1:13">
       <c r="A19" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
       <c r="B19" s="38">
-        <f t="shared" si="0"/>
-        <v>8553</v>
+        <v>45078</v>
       </c>
       <c r="C19" s="36" t="s">
         <v>71</v>
@@ -2803,7 +2885,7 @@
         <v>4</v>
       </c>
       <c r="F19" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>efectivo</v>
       </c>
       <c r="G19" s="36"/>
@@ -2812,7 +2894,7 @@
     </row>
     <row r="20" spans="1:13">
       <c r="A20" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
       <c r="B20" s="38">
@@ -2828,7 +2910,7 @@
         <v>4</v>
       </c>
       <c r="F20" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>efectivo</v>
       </c>
       <c r="G20" s="36"/>
@@ -2837,7 +2919,7 @@
     </row>
     <row r="21" spans="1:13">
       <c r="A21" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>19</v>
       </c>
       <c r="B21" s="38">
@@ -2853,7 +2935,7 @@
         <v>1</v>
       </c>
       <c r="F21" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>santander</v>
       </c>
       <c r="G21" s="36"/>
@@ -2862,7 +2944,7 @@
     </row>
     <row r="22" spans="1:13">
       <c r="A22" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
       <c r="B22" s="38">
@@ -2878,7 +2960,7 @@
         <v>4</v>
       </c>
       <c r="F22" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>efectivo</v>
       </c>
       <c r="G22" s="36"/>
@@ -2887,7 +2969,7 @@
     </row>
     <row r="23" spans="1:13">
       <c r="A23" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>21</v>
       </c>
       <c r="B23" s="38">
@@ -2903,7 +2985,7 @@
         <v>3</v>
       </c>
       <c r="F23" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>bbva</v>
       </c>
       <c r="G23" s="36"/>
@@ -2912,7 +2994,7 @@
     </row>
     <row r="24" spans="1:13">
       <c r="A24" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>22</v>
       </c>
       <c r="B24" s="38">
@@ -2928,7 +3010,7 @@
         <v>4</v>
       </c>
       <c r="F24" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>efectivo</v>
       </c>
       <c r="G24" s="36"/>
@@ -2937,7 +3019,7 @@
     </row>
     <row r="25" spans="1:13">
       <c r="A25" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>23</v>
       </c>
       <c r="B25" s="38">
@@ -2953,7 +3035,7 @@
         <v>4</v>
       </c>
       <c r="F25" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>efectivo</v>
       </c>
       <c r="G25" s="36"/>
@@ -2962,7 +3044,7 @@
     </row>
     <row r="26" spans="1:13">
       <c r="A26" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
       <c r="B26" s="38">
@@ -2978,7 +3060,7 @@
         <v>1</v>
       </c>
       <c r="F26" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>santander</v>
       </c>
       <c r="G26" s="36"/>
@@ -3003,7 +3085,7 @@
         <v>4</v>
       </c>
       <c r="F27" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>efectivo</v>
       </c>
       <c r="G27" s="36"/>
@@ -3012,7 +3094,7 @@
     </row>
     <row r="28" spans="1:13">
       <c r="A28" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>26</v>
       </c>
       <c r="B28" s="38">
@@ -3028,7 +3110,7 @@
         <v>4</v>
       </c>
       <c r="F28" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>efectivo</v>
       </c>
       <c r="G28" s="36"/>
@@ -3037,7 +3119,7 @@
     </row>
     <row r="29" spans="1:13">
       <c r="A29" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>27</v>
       </c>
       <c r="B29" s="38">
@@ -3053,7 +3135,7 @@
         <v>4</v>
       </c>
       <c r="F29" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>efectivo</v>
       </c>
       <c r="G29" s="36"/>
@@ -3062,7 +3144,7 @@
     </row>
     <row r="30" spans="1:13">
       <c r="A30" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>28</v>
       </c>
       <c r="B30" s="38">
@@ -3078,7 +3160,7 @@
         <v>4</v>
       </c>
       <c r="F30" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>efectivo</v>
       </c>
       <c r="G30" s="36"/>
@@ -3103,7 +3185,7 @@
         <v>4</v>
       </c>
       <c r="F31" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>efectivo</v>
       </c>
       <c r="G31" s="36"/>
@@ -3112,7 +3194,7 @@
     </row>
     <row r="32" spans="1:13">
       <c r="A32" s="34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>30</v>
       </c>
       <c r="B32" s="38">
@@ -3128,7 +3210,7 @@
         <v>4</v>
       </c>
       <c r="F32" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>efectivo</v>
       </c>
       <c r="G32" s="36"/>
@@ -3153,7 +3235,7 @@
         <v>4</v>
       </c>
       <c r="F33" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>efectivo</v>
       </c>
       <c r="G33" s="36"/>
@@ -3162,7 +3244,7 @@
     </row>
     <row r="34" spans="1:13">
       <c r="A34" s="34">
-        <f t="shared" ref="A34:A44" si="4">A33+1</f>
+        <f t="shared" ref="A34:A44" si="3">A33+1</f>
         <v>32</v>
       </c>
       <c r="B34" s="38">
@@ -3178,7 +3260,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>santander</v>
       </c>
       <c r="G34" s="36"/>
@@ -3191,7 +3273,7 @@
     </row>
     <row r="35" spans="1:13">
       <c r="A35" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>33</v>
       </c>
       <c r="B35" s="38">
@@ -3207,7 +3289,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="36" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="2"/>
         <v>santander</v>
       </c>
       <c r="G35" s="36"/>
@@ -3220,7 +3302,7 @@
     </row>
     <row r="36" spans="1:13">
       <c r="A36" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>34</v>
       </c>
       <c r="B36" s="38"/>
@@ -3232,7 +3314,7 @@
     </row>
     <row r="37" spans="1:13">
       <c r="A37" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>35</v>
       </c>
       <c r="B37" s="38"/>
@@ -3244,7 +3326,7 @@
     </row>
     <row r="38" spans="1:13">
       <c r="A38" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>36</v>
       </c>
       <c r="B38" s="38"/>
@@ -3256,7 +3338,7 @@
     </row>
     <row r="39" spans="1:13">
       <c r="A39" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>37</v>
       </c>
       <c r="B39" s="38"/>
@@ -3268,7 +3350,7 @@
     </row>
     <row r="40" spans="1:13">
       <c r="A40" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>38</v>
       </c>
       <c r="B40" s="38"/>
@@ -3280,7 +3362,7 @@
     </row>
     <row r="41" spans="1:13">
       <c r="A41" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>39</v>
       </c>
       <c r="B41" s="38"/>
@@ -3292,7 +3374,7 @@
     </row>
     <row r="42" spans="1:13">
       <c r="A42" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>40</v>
       </c>
       <c r="B42" s="38"/>
@@ -3304,7 +3386,7 @@
     </row>
     <row r="43" spans="1:13">
       <c r="A43" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>41</v>
       </c>
       <c r="B43" s="38"/>
@@ -3316,7 +3398,7 @@
     </row>
     <row r="44" spans="1:13">
       <c r="A44" s="34">
-        <f t="shared" si="4"/>
+        <f t="shared" si="3"/>
         <v>42</v>
       </c>
       <c r="B44" s="38"/>
@@ -3332,40 +3414,152 @@
     <mergeCell ref="I1:K1"/>
   </mergeCells>
   <conditionalFormatting sqref="D3:D44">
-    <cfRule type="cellIs" dxfId="1" priority="7" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="7" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="8" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="8" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I10:J10 I12:J12 J11">
-    <cfRule type="cellIs" dxfId="7" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="5" priority="6" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="J11:J12">
-    <cfRule type="cellIs" dxfId="6" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K3:K6">
-    <cfRule type="cellIs" dxfId="5" priority="3" operator="lessThan">
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="4" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="K8">
-    <cfRule type="cellIs" dxfId="3" priority="1" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="1" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="2" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DBE0ED7-8598-4BD1-88E7-F09E8A87B907}">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="13.42578125" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="3" max="3" width="16.140625" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="57" t="s">
+        <v>86</v>
+      </c>
+      <c r="B2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="56" t="s">
+        <v>88</v>
+      </c>
+      <c r="B4" s="56"/>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="52">
+        <v>45100</v>
+      </c>
+      <c r="B7" s="53" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="54">
+        <v>0</v>
+      </c>
+      <c r="D7" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="B10" s="55" t="s">
+        <v>97</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="B11" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="C11" s="54">
+        <f>SUM(C7:C8)</f>
+        <v>0</v>
+      </c>
+      <c r="D11" s="54">
+        <f>SUM(D7:D8)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="B12" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" s="54">
+        <f>C11-D11</f>
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A4:B4"/>
+  </mergeCells>
+  <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/CONTROL_ALEXIS_ROMERO.xlsx
+++ b/CONTROL_ALEXIS_ROMERO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ARM\ControlGastos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{186490C1-24BA-4720-8E90-EE138917A4CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{046F12BD-1193-4EA8-8A38-A2C03AA1FC5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="15150" activeTab="3" xr2:uid="{3FAFDB23-1CF5-4013-9B78-8B5AA99A5182}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="115">
   <si>
     <t>qty</t>
   </si>
@@ -305,43 +305,95 @@
     <t>CONTROL DE INGRESOS Y EGRESOS:</t>
   </si>
   <si>
-    <t>FECHA</t>
-  </si>
-  <si>
-    <t>INGRESO</t>
-  </si>
-  <si>
-    <t>EGRESO</t>
-  </si>
-  <si>
-    <t>CAPITAL INICIAL</t>
-  </si>
-  <si>
-    <t>TOTAL:</t>
-  </si>
-  <si>
-    <t>SALDO:</t>
-  </si>
-  <si>
-    <t>TOTAL INGRESO</t>
-  </si>
-  <si>
-    <t>TOTAL EGRESO</t>
-  </si>
-  <si>
-    <t>TOTALES</t>
+    <t>1 mesa chica + 6 sillas</t>
+  </si>
+  <si>
+    <t>1 mesa grande + 6 sillas</t>
+  </si>
+  <si>
+    <t>1 mesa grande + 8 sillas</t>
+  </si>
+  <si>
+    <t>COSTOS</t>
+  </si>
+  <si>
+    <t>1 hielera grande</t>
+  </si>
+  <si>
+    <t>DESGLOSE DE GANANCIAS DE ACUERDO A LOS PRECIOS:</t>
+  </si>
+  <si>
+    <t>VIERNES</t>
+  </si>
+  <si>
+    <t>SILLAS</t>
+  </si>
+  <si>
+    <t>MESAS CHICAS</t>
+  </si>
+  <si>
+    <t>MESAS GRANDES</t>
+  </si>
+  <si>
+    <t>HIELERAS GRANDES</t>
+  </si>
+  <si>
+    <t>BRINCA BRINCA 3x3</t>
+  </si>
+  <si>
+    <t>INVENTARIO INDIVIDUAL</t>
+  </si>
+  <si>
+    <t>INVENTARIO POR COMBOS</t>
+  </si>
+  <si>
+    <t>1 MESA CHICA + 4 SILLAS</t>
+  </si>
+  <si>
+    <t>8 JUEGOS</t>
+  </si>
+  <si>
+    <t>FALTAN SILLAS</t>
+  </si>
+  <si>
+    <t>SABADO</t>
+  </si>
+  <si>
+    <t>DOMINGO</t>
+  </si>
+  <si>
+    <t>8 COMBOS CHICOS</t>
+  </si>
+  <si>
+    <t>4 HIELERAS</t>
+  </si>
+  <si>
+    <t>4 HIELERAS (INDIVIDUALES)</t>
+  </si>
+  <si>
+    <t>combo 1 mesa chica + 4 sillas</t>
+  </si>
+  <si>
+    <t>4 brinca brincas</t>
+  </si>
+  <si>
+    <t>1 brinca brinca</t>
+  </si>
+  <si>
+    <t>1 MESA GRANDE + 6 sillas</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_-&quot;$&quot;* #,##0.00_-;\-&quot;$&quot;* #,##0.00_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_-&quot;$&quot;* #,##0_-;\-&quot;$&quot;* #,##0_-;_-&quot;$&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -453,8 +505,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="14">
+  <fills count="17">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -531,8 +620,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00FA00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -592,13 +699,31 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
@@ -662,6 +787,10 @@
     <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -683,25 +812,48 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="44" fontId="21" fillId="15" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="16" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Bueno" xfId="1" builtinId="26"/>
     <cellStyle name="Incorrecto" xfId="2" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="13">
+  <dxfs count="11">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -812,18 +964,12 @@
         </patternFill>
       </fill>
     </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="&quot;$&quot;#,##0.00"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF00FA00"/>
       <color rgb="FF28CD41"/>
-      <color rgb="FF00FA00"/>
     </mruColors>
   </colors>
   <extLst>
@@ -835,33 +981,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DBF203B9-D3EC-4D38-953D-15350ECE7D5C}" name="Tabla1" displayName="Tabla1" ref="A6:D8" totalsRowShown="0">
-  <autoFilter ref="A6:D8" xr:uid="{DBF203B9-D3EC-4D38-953D-15350ECE7D5C}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{489C5F4A-8927-46D7-BCBD-CDFABE9D1AB3}" name="FECHA"/>
-    <tableColumn id="2" xr3:uid="{CF70806B-E810-4A1C-BA9A-301F219AFE9D}" name="DESCRIPCION"/>
-    <tableColumn id="3" xr3:uid="{796B9485-1B10-449C-9ADB-0BD835C6D9D5}" name="INGRESO"/>
-    <tableColumn id="4" xr3:uid="{F81D1200-8249-4639-8642-7918AAFC84F0}" name="EGRESO"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8F50BF62-943F-44D4-BBE4-B76150A93187}" name="Tabla2" displayName="Tabla2" ref="B10:D12" totalsRowShown="0">
-  <autoFilter ref="B10:D12" xr:uid="{8F50BF62-943F-44D4-BBE4-B76150A93187}"/>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{1C7C75B3-9954-490B-B2D9-C6E9F64941E3}" name="TOTALES" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{F05B19AA-6F7C-46AD-BBDF-42F8D6BF0ED7}" name="TOTAL INGRESO" dataDxfId="11">
-      <calculatedColumnFormula>C10-D10</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{866002AB-BFEE-4C84-AF1C-D69630F2AB41}" name="TOTAL EGRESO"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1702,17 +1821,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="45" t="s">
+      <c r="A1" s="47" t="s">
         <v>35</v>
       </c>
-      <c r="B1" s="46"/>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46"/>
-      <c r="E1" s="46"/>
-      <c r="F1" s="46"/>
-      <c r="G1" s="46"/>
-      <c r="H1" s="46"/>
-      <c r="I1" s="46"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
     </row>
     <row r="2" spans="1:9">
       <c r="A2" s="24" t="s">
@@ -2116,10 +2235,10 @@
       <c r="I22" s="22"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="48" t="s">
+      <c r="A24" s="50" t="s">
         <v>39</v>
       </c>
-      <c r="B24" s="49"/>
+      <c r="B24" s="51"/>
       <c r="C24" s="30">
         <f>SUM(C5:C12)</f>
         <v>-3091.4974999999999</v>
@@ -2141,10 +2260,10 @@
       <c r="L24" s="21"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="50" t="s">
+      <c r="A25" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="B25" s="50"/>
+      <c r="B25" s="52"/>
       <c r="C25" s="32">
         <f>SUM(C3:C4)</f>
         <v>4499.68</v>
@@ -2166,10 +2285,10 @@
       <c r="L25" s="21"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="47" t="s">
+      <c r="A26" s="49" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="47"/>
+      <c r="B26" s="49"/>
       <c r="C26" s="29">
         <f>SUM(C3:C23)</f>
         <v>1408.1824999999999</v>
@@ -2349,21 +2468,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="51" t="s">
+      <c r="A1" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="51"/>
-      <c r="C1" s="51"/>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
+      <c r="B1" s="53"/>
+      <c r="C1" s="53"/>
+      <c r="D1" s="53"/>
+      <c r="E1" s="53"/>
+      <c r="F1" s="53"/>
+      <c r="G1" s="53"/>
       <c r="H1" s="41"/>
-      <c r="I1" s="51" t="s">
+      <c r="I1" s="53" t="s">
         <v>61</v>
       </c>
-      <c r="J1" s="51"/>
-      <c r="K1" s="51"/>
+      <c r="J1" s="53"/>
+      <c r="K1" s="53"/>
       <c r="L1" s="41"/>
       <c r="M1" s="41"/>
     </row>
@@ -3454,112 +3573,290 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DBE0ED7-8598-4BD1-88E7-F09E8A87B907}">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" showWhiteSpace="0" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" showWhiteSpace="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.42578125" customWidth="1"/>
-    <col min="2" max="2" width="34.7109375" customWidth="1"/>
+    <col min="1" max="1" width="20.140625" customWidth="1"/>
+    <col min="2" max="2" width="18.85546875" customWidth="1"/>
     <col min="3" max="3" width="16.140625" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14" customWidth="1"/>
+    <col min="6" max="6" width="26" customWidth="1"/>
+    <col min="7" max="7" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="57" t="s">
+    <row r="1" spans="1:7">
+      <c r="A1" s="46" t="s">
         <v>84</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="58" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="57" t="s">
+      <c r="C1" s="59"/>
+      <c r="F1" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="46" t="s">
         <v>86</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="58" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="56" t="s">
+      <c r="C2" s="59"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="F3" s="60" t="s">
+        <v>101</v>
+      </c>
+      <c r="G3" s="65" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="54" t="s">
         <v>88</v>
       </c>
-      <c r="B4" s="56"/>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" t="s">
+      <c r="B4" s="54"/>
+      <c r="F4" s="66" t="s">
+        <v>96</v>
+      </c>
+      <c r="G4" s="67">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="F5" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="G5" s="67">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75">
+      <c r="A6" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="F6" s="66" t="s">
+        <v>98</v>
+      </c>
+      <c r="G6" s="67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" s="56" t="s">
+        <v>111</v>
+      </c>
+      <c r="B7" s="56"/>
+      <c r="C7" s="55">
+        <v>80</v>
+      </c>
+      <c r="D7" s="45"/>
+      <c r="F7" s="66" t="s">
+        <v>99</v>
+      </c>
+      <c r="G7" s="67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" s="56" t="s">
         <v>89</v>
       </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B8" s="56"/>
+      <c r="C8" s="55">
+        <v>100</v>
+      </c>
+      <c r="F8" s="66" t="s">
+        <v>100</v>
+      </c>
+      <c r="G8" s="67">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" s="56" t="s">
         <v>90</v>
       </c>
-      <c r="D6" t="s">
+      <c r="B9" s="56"/>
+      <c r="C9" s="55">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" s="56" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="52">
-        <v>45100</v>
-      </c>
-      <c r="B7" s="53" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="54">
-        <v>0</v>
-      </c>
-      <c r="D7" s="54">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="B10" s="55" t="s">
-        <v>97</v>
-      </c>
-      <c r="C10" s="54" t="s">
+      <c r="B10" s="56"/>
+      <c r="C10" s="55">
+        <v>120</v>
+      </c>
+      <c r="D10" s="45"/>
+      <c r="F10" s="60" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" s="56" t="s">
+        <v>93</v>
+      </c>
+      <c r="B11" s="56"/>
+      <c r="C11" s="55">
+        <v>250</v>
+      </c>
+      <c r="D11" s="45"/>
+      <c r="F11" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="G11" s="20" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" s="56" t="s">
+        <v>113</v>
+      </c>
+      <c r="B12" s="56"/>
+      <c r="C12" s="55">
+        <v>350</v>
+      </c>
+      <c r="D12" s="45"/>
+      <c r="F12" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="G12" s="20"/>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" s="56"/>
+      <c r="B13" s="56"/>
+      <c r="C13" s="55"/>
+      <c r="F13" s="68" t="s">
+        <v>114</v>
+      </c>
+      <c r="G13" s="68" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75">
+      <c r="B16" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="D10" s="54" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="B11" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="C11" s="54">
-        <f>SUM(C7:C8)</f>
-        <v>0</v>
-      </c>
-      <c r="D11" s="54">
-        <f>SUM(D7:D8)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="B12" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="C12" s="54">
-        <f>C11-D11</f>
-        <v>0</v>
+      <c r="C16" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="62" t="s">
+        <v>107</v>
+      </c>
+      <c r="E16" s="63" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="64" t="s">
+        <v>108</v>
+      </c>
+      <c r="B17" s="55">
+        <f>8*$C$7</f>
+        <v>640</v>
+      </c>
+      <c r="C17" s="55">
+        <f t="shared" ref="C17:D17" si="0">8*$C$7</f>
+        <v>640</v>
+      </c>
+      <c r="D17" s="55">
+        <f t="shared" si="0"/>
+        <v>640</v>
+      </c>
+      <c r="E17" s="55">
+        <f>SUM(B17:D17)</f>
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="64" t="s">
+        <v>109</v>
+      </c>
+      <c r="B18" s="55">
+        <f>4*$C$11</f>
+        <v>1000</v>
+      </c>
+      <c r="C18" s="55">
+        <f t="shared" ref="C18:D19" si="1">4*$C$11</f>
+        <v>1000</v>
+      </c>
+      <c r="D18" s="55">
+        <f t="shared" si="1"/>
+        <v>1000</v>
+      </c>
+      <c r="E18" s="55">
+        <f>SUM(B18:D18)</f>
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="B19" s="55">
+        <f>4*$C$12</f>
+        <v>1400</v>
+      </c>
+      <c r="C19" s="55">
+        <f t="shared" ref="C19:E19" si="2">4*$C$12</f>
+        <v>1400</v>
+      </c>
+      <c r="D19" s="55">
+        <f t="shared" si="2"/>
+        <v>1400</v>
+      </c>
+      <c r="E19" s="55">
+        <f t="shared" si="2"/>
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75">
+      <c r="B21" s="61">
+        <f>SUM(B17:B19)</f>
+        <v>3040</v>
+      </c>
+      <c r="C21" s="61">
+        <f>SUM(C17:C19)</f>
+        <v>3040</v>
+      </c>
+      <c r="D21" s="61">
+        <f>SUM(D17:D19)</f>
+        <v>3040</v>
+      </c>
+      <c r="E21" s="61">
+        <f>SUM(E17:E19)</f>
+        <v>6320</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="11">
+    <mergeCell ref="B1:C1"/>
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="A12:B12"/>
     <mergeCell ref="A4:B4"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A10:B10"/>
+    <mergeCell ref="A6:C6"/>
   </mergeCells>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="2">
-    <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
-  </tableParts>
 </worksheet>
 </file>